--- a/スクリプト一覧.xlsx
+++ b/スクリプト一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takano/Git/ai-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9F5A9B-B87A-CB45-8A53-06A54679EBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD246FF-3E2A-1348-A348-2EBFE7A88BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40740" yWindow="500" windowWidth="10460" windowHeight="19820" xr2:uid="{7CB03976-3BB7-D247-90D3-1312FDBC04BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>text</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>ConvertExcelObjectHelper.jsx</t>
-  </si>
-  <si>
-    <t>〈塗り〉を〈線〉に.ai</t>
   </si>
   <si>
     <t>カテゴリ</t>
@@ -319,10 +316,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{283825D0-10AB-A942-B2C5-95512F0B7019}" name="テーブル1" displayName="テーブル1" ref="A1:B54" totalsRowShown="0">
-  <autoFilter ref="A1:B54" xr:uid="{283825D0-10AB-A942-B2C5-95512F0B7019}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B54">
-    <sortCondition ref="A1:A54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{283825D0-10AB-A942-B2C5-95512F0B7019}" name="テーブル1" displayName="テーブル1" ref="A1:B53" totalsRowShown="0">
+  <autoFilter ref="A1:B53" xr:uid="{283825D0-10AB-A942-B2C5-95512F0B7019}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B53">
+    <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EB2785EE-1FA5-024B-A008-B995910FDE7A}" name="カテゴリ"/>
@@ -649,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E6B333-180F-8B47-8FB5-36399A5F1A7C}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -663,10 +660,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -695,10 +692,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -706,15 +703,15 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -722,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -730,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -738,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -746,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -754,15 +751,15 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -770,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -778,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -786,15 +783,15 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -802,15 +799,15 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -818,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -826,23 +823,23 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -850,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -858,15 +855,15 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -874,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -882,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -890,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -898,15 +895,15 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -914,15 +911,15 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -930,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -938,23 +935,23 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -962,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -970,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -978,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -986,7 +983,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -994,31 +991,31 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1026,15 +1023,15 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1042,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1050,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1058,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1066,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1074,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1082,14 +1079,6 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
         <v>17</v>
       </c>
     </row>

--- a/スクリプト一覧.xlsx
+++ b/スクリプト一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takano/Git/ai-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD246FF-3E2A-1348-A348-2EBFE7A88BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A040B732-34B0-514C-B0A1-F028A6F382BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40740" yWindow="500" windowWidth="10460" windowHeight="19820" xr2:uid="{7CB03976-3BB7-D247-90D3-1312FDBC04BA}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E6B333-180F-8B47-8FB5-36399A5F1A7C}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
